--- a/docs/PT2/PT2_24.07.24_output.xlsx
+++ b/docs/PT2/PT2_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1416 +505,1684 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730822723.8671935</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730822729.5534594</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730822723.8671935.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730822729.5534594.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.96</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>296.09</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730822734.278969</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730822738.5261297</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730822734.278969.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730822738.5261297.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730822751.3850696</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730822752.678322</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730822751.3850696.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730822752.678322.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6962.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6949.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730822753.7823586</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730822754.8142917</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730822753.7823586.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730822754.8142917.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6958.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6960</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730822757.5662715</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730822760.4724004</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730822757.5662715.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730822760.4724004.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>533.85</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>536.6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730822762.1057446</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730822766.2453055</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730822762.1057446.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730822766.2453055.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>536.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>537.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730822767.3963912</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730822773.219335</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730822767.3963912.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730822773.219335.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1096.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730822780.951554</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730822781.5700278</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822780.951554.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822781.5700278.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>129.06</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>129.44</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730822782.762953</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730822783.0801806</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822782.762953.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822783.0801806.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.32</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730822783.3495295</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730822784.8756783</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822783.3495295.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822784.8756783.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.72</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730822787.490755</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730822790.4498887</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822787.490755.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730822790.4498887.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>131</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730822804.7494087</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730822812.1258147</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730822804.7494087.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730822812.1258147.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>53.335</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>53.665</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.3299999999999983</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730822828.856938</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730822829.6738229</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730822828.856938.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730822829.6738229.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>63.92</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>63.98</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730822835.0176659</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730822835.0752501</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730822835.0176659.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730822835.0752501.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>64.23</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>64.16</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.07000000000000739</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730822835.174802</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730822835.174802.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730822835.174802.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>64.19</v>
       </c>
-      <c r="J17" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730822844.0140064</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730822847.2372162</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SELG1730822844.0140064.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SELG1730822847.2372162.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>59.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>59.26</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730822853.8359487</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730822855.4471214</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730822853.8359487.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730822855.4471214.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>145.84</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>145.7</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730822857.5418115</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730822857.5418115.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730822857.5418115.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>145.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.6999999999999886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730822860.3418279</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730822867.1531935</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730822860.3418279.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730822867.1531935.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>90.62</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>89.38</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.240000000000009</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730822867.1678066</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730822869.158341</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730822867.1678066.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730822869.158341.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>89.38</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>89.16</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730822871.0820386</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730822874.7185385</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730822871.0820386.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730822874.7185385.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>361.68</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>361.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730822876.5997777</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730822876.6964014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730822876.5997777.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730822876.6964014.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>363.69</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>362.39</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730822880.210024</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1730822880.210024.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1730822880.210024.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>371.66</v>
       </c>
-      <c r="J25" t="n">
-        <v>371.66</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.420000000000016</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730822884.6067727</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730822887.017818</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/FEES1730822884.6067727.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/FEES1730822887.017818.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>0.10028</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.10086</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.0005799999999999972</v>
+      <c r="M26" t="n">
+        <v>0.0005800000000000111</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730822892.1363263</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730822892.1363263.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730822892.1363263.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.1002</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.000000000000449e-05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730822894.674866</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730822899.3232844</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1730822894.674866.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1730822899.3232844.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>3119.65</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>3123.9</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>4.25</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730822903.3004887</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730822903.3004887.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730822903.3004887.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3134</v>
       </c>
-      <c r="J29" t="n">
-        <v>3134</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.050000000000182</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730822912.3479264</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730822913.2235177</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730822912.3479264.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730822913.2235177.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>37.995</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>37.92</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730822913.8922036</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730822913.8922036.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730822913.8922036.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>37.99</v>
       </c>
-      <c r="J31" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.004999999999995453</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,6 +2220,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1950,6 +2248,15 @@
       <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.3699999999999974</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1958,11 +2265,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01000000000001222</v>
+        <v>-0.2500000000000071</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.0833333333333357</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1971,11 +2287,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.379999999999995</v>
+        <v>-0.04000000000002046</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.01333333333334016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1989,6 +2314,15 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.5100000000000051</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1997,11 +2331,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005799999999999972</v>
+        <v>0.0006400000000000156</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.0003200000000000078</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2015,6 +2358,15 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2023,11 +2375,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.25</v>
+        <v>3.199999999999818</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2041,6 +2402,15 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>1.699999999999989</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2049,11 +2419,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07499999999999574</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.03500000000000014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2062,11 +2441,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1400000000000148</v>
+        <v>-0.5599999999999739</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.2799999999999869</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2080,6 +2468,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2093,6 +2490,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.3299999999999983</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2106,6 +2512,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2119,6 +2534,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2132,6 +2556,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2145,6 +2578,11 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
